--- a/output/KAPITALO_34633374000166.xlsx
+++ b/output/KAPITALO_34633374000166.xlsx
@@ -559,10 +559,10 @@
         <v>44165</v>
       </c>
       <c r="B16">
-        <v>0.006184699999999932</v>
+        <v>0.002452499999999969</v>
       </c>
       <c r="C16">
-        <v>0.03869952676617205</v>
+        <v>0.03484672084117979</v>
       </c>
     </row>
   </sheetData>

--- a/output/KAPITALO_34633374000166.xlsx
+++ b/output/KAPITALO_34633374000166.xlsx
@@ -14,12 +14,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <t>KAPITALO APOLLINHO III FUNDO DE INVESTIMENTO EM COTAS DE FUNDOS DE INVESTIMENTO MULTIMERCADO</t>
-  </si>
-  <si>
-    <t>mensal</t>
   </si>
   <si>
     <t>d</t>
@@ -386,183 +383,138 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C16"/>
+  <dimension ref="A1:B16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
+    </row>
+    <row r="2" spans="1:2">
       <c r="A2" s="2">
         <v>43738</v>
       </c>
       <c r="B2">
-        <v>0.007804399999999934</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
       <c r="A3" s="2">
         <v>43769</v>
       </c>
       <c r="B3">
-        <v>0.04195729999999998</v>
-      </c>
-      <c r="C3">
         <v>0.03388842120554347</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:2">
       <c r="A4" s="2">
         <v>43799</v>
       </c>
       <c r="B4">
-        <v>0.0411511</v>
-      </c>
-      <c r="C4">
         <v>-0.000773736121432167</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:2">
       <c r="A5" s="2">
         <v>43830</v>
       </c>
       <c r="B5">
-        <v>0.0794102000000001</v>
-      </c>
-      <c r="C5">
         <v>0.0367469236693887</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:2">
       <c r="A6" s="2">
         <v>43861</v>
       </c>
       <c r="B6">
-        <v>0.06219269999999999</v>
-      </c>
-      <c r="C6">
         <v>-0.01595084056089158</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:2">
       <c r="A7" s="2">
         <v>43890</v>
       </c>
       <c r="B7">
-        <v>0.03213949999999999</v>
-      </c>
-      <c r="C7">
         <v>-0.02829354786565563</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:2">
       <c r="A8" s="2">
         <v>43921</v>
       </c>
       <c r="B8">
-        <v>-0.07796820000000004</v>
-      </c>
-      <c r="C8">
         <v>-0.1066790874683122</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:2">
       <c r="A9" s="2">
         <v>43951</v>
       </c>
       <c r="B9">
-        <v>-0.05768589999999996</v>
-      </c>
-      <c r="C9">
         <v>0.02199739748672447</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:2">
       <c r="A10" s="2">
         <v>43982</v>
       </c>
       <c r="B10">
-        <v>-0.03309969999999995</v>
-      </c>
-      <c r="C10">
         <v>0.02609130013017946</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:2">
       <c r="A11" s="2">
         <v>44012</v>
       </c>
       <c r="B11">
-        <v>-0.03423739999999997</v>
-      </c>
-      <c r="C11">
         <v>-0.001176646651159352</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:2">
       <c r="A12" s="2">
         <v>44043</v>
       </c>
       <c r="B12">
-        <v>-0.004566500000000029</v>
-      </c>
-      <c r="C12">
         <v>0.03072276768638571</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:2">
       <c r="A13" s="2">
         <v>44074</v>
       </c>
       <c r="B13">
-        <v>0.005745700000000076</v>
-      </c>
-      <c r="C13">
         <v>0.01035950668728769</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:2">
       <c r="A14" s="2">
         <v>44104</v>
       </c>
       <c r="B14">
-        <v>-0.02489580000000002</v>
-      </c>
-      <c r="C14">
         <v>-0.03046644892441508</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:2">
       <c r="A15" s="2">
         <v>44135</v>
       </c>
       <c r="B15">
-        <v>-0.03130339999999998</v>
-      </c>
-      <c r="C15">
         <v>-0.006571195160476107</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:2">
       <c r="A16" s="2">
         <v>44165</v>
       </c>
       <c r="B16">
-        <v>0.002452499999999969</v>
-      </c>
-      <c r="C16">
-        <v>0.03484672084117979</v>
+        <v>0.02470401981384063</v>
       </c>
     </row>
   </sheetData>
